--- a/biology/Zoologie/Forcipulatacea/Forcipulatacea.xlsx
+++ b/biology/Zoologie/Forcipulatacea/Forcipulatacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Forcipulatacea sont un super-ordre d'étoiles de mer (Asteroidea).
 </t>
@@ -511,10 +523,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce super-ordre a été établi pour regrouper les ordres des Brisingida et des Forcipulatida, sur la base de leurs pédicellaires à structure commune.
-Ce groupe contient 365 espèces, réparties en 77 genres contenus dans 8 familles[2]. On en trouve sur tous les continents, principalement dans les eaux froides et tempérées, ainsi que dans les abysses.
+Ce groupe contient 365 espèces, réparties en 77 genres contenus dans 8 familles. On en trouve sur tous les continents, principalement dans les eaux froides et tempérées, ainsi que dans les abysses.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (22 avril 2015)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (22 avril 2015) :
 ordre Brisingida
 famille Brisingidae G.O. Sars, 1875 -- 10 genres
 famille Freyellidae Downey, 1986 -- 6 genres
